--- a/Industrials/Roper Technologies.xlsx
+++ b/Industrials/Roper Technologies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4858DE48-0F11-2D4C-8FFF-D54819A29717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349066A-A915-B743-9455-9590B0B2BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2356,6 +2356,10 @@
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
       <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
@@ -2377,6 +2381,10 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2505,10 +2513,8 @@
     <v>482.75</v>
     <v>356.21499999999997</v>
     <v>1.0185999999999999</v>
-    <v>9.2499999999999999E-2</v>
-    <v>1.942E-4</v>
-    <v>-7.59</v>
-    <v>-1.5931999999999998E-2</v>
+    <v>-0.76</v>
+    <v>-1.5950000000000001E-3</v>
     <v>USD</v>
     <v>Roper Technologies, Inc. is a diversified technology company. The Company operates businesses that design and develop vertical software and technology enabled products for a variety of defensible niche markets. The Company operates through three segments: Application Software, Network Software and Technology Enabled Products. The Application Software segment includes Aderant, CBORD/Horizon, CliniSys, Data Innovations, Deltek, Frontline Education, IntelliTrans, PowerPlan, Strata, Vertafore. The Network Software segment includes ConstructConnect, DAT, Foundry, iPipeline, iTradeNetwork, Loadlink, MHA, SHP, SoftWriters. The Technology Enabled Products segment includes CIVCO Medical Solutions, FMI, Inovonics, IPA, Neptune, Northern Digital, rf IDEAS, Verathon. Aderant is a comprehensive management software solution for law and other professional services firms, including business development, calendar/docket matter management and others. CBORD/Horizon is a campus solutions software.</v>
     <v>15800</v>
@@ -2516,25 +2522,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6901 Professional Pkwy East, Suite 200, SARASOTA, FL, 34240-8473 US</v>
-    <v>479.63</v>
+    <v>482.1</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.842625115627</v>
+    <v>45117.849248159378</v>
     <v>0</v>
-    <v>472.58</v>
+    <v>473.65</v>
     <v>50781610000</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
-    <v>472.58</v>
-    <v>49.256700000000002</v>
-    <v>476.3175</v>
+    <v>476.94</v>
+    <v>49.178100000000001</v>
     <v>476.41</v>
-    <v>468.82</v>
+    <v>475.65</v>
     <v>106592200</v>
     <v>ROP</v>
     <v>ROPER TECHNOLOGIES, INC. (XNAS:ROP)</v>
-    <v>392591</v>
-    <v>556473</v>
+    <v>330228</v>
+    <v>477678</v>
     <v>1981</v>
   </rv>
   <rv s="2">
@@ -2566,8 +2571,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2588,7 +2591,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2605,7 +2607,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2616,16 +2618,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2691,19 +2690,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2748,9 +2741,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2758,9 +2748,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3122,10 +3109,10 @@
   <dimension ref="A1:AP118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK96" sqref="AK96"/>
+      <selection pane="bottomRight" activeCell="AH100" sqref="AH100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5388,7 +5375,7 @@
       </c>
       <c r="AO19" s="40">
         <f>AI116/AH31</f>
-        <v>29.138226299694189</v>
+        <v>29.091743119266052</v>
       </c>
       <c r="AP19" s="41">
         <f>AO101/AH106</f>
@@ -14963,7 +14950,7 @@
       </c>
       <c r="AI116" s="61" cm="1">
         <f t="array" ref="AI116">_FV(A1,"Price",TRUE)</f>
-        <v>476.41</v>
+        <v>475.65</v>
       </c>
     </row>
     <row r="117" spans="34:35" ht="20" x14ac:dyDescent="0.25">
@@ -14972,7 +14959,7 @@
       </c>
       <c r="AI117" s="62">
         <f>(AI115/AI116)-1</f>
-        <v>1.2068273551554487E-2</v>
+        <v>1.3685369920521717E-2</v>
       </c>
     </row>
     <row r="118" spans="34:35" ht="20" x14ac:dyDescent="0.25">

--- a/Industrials/Roper Technologies.xlsx
+++ b/Industrials/Roper Technologies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349066A-A915-B743-9455-9590B0B2BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B3232-4856-A141-9E6C-FFE84CE3D0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -408,9 +408,6 @@
     <t>FCF Growth Rate</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Weighted Average Cost of Capital</t>
   </si>
   <si>
@@ -574,6 +568,15 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -702,6 +705,13 @@
       <b/>
       <u/>
       <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -875,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -920,29 +930,15 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -971,42 +967,106 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,14 +1126,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.36563638966616774"/>
-          <c:y val="2.1376085504342019E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1107,15 +1159,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0353719008264458E-2"/>
-          <c:y val="0.13768871075484301"/>
-          <c:w val="0.85675371900826447"/>
-          <c:h val="0.67510958925725462"/>
+          <c:x val="9.2416528925619829E-2"/>
+          <c:y val="0.15780726877299187"/>
+          <c:w val="0.84543471074380172"/>
+          <c:h val="0.60190382948818322"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1164,12 +1216,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AG$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AL$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>75000000</c:v>
                 </c:pt>
@@ -1265,13 +1437,28 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5371800000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6044000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6401000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6692000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7175000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF88-8742-9FAF-3FAB1B183A3D}"/>
+              <c16:uniqueId val="{00000000-117C-684F-9477-E5266466009F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1322,12 +1509,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$AG$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$AL$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>4900000</c:v>
                 </c:pt>
@@ -1423,13 +1730,28 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1544700000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1743000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1886000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2466000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2862000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3308000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF88-8742-9FAF-3FAB1B183A3D}"/>
+              <c16:uniqueId val="{00000001-117C-684F-9477-E5266466009F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1480,12 +1802,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AG$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>7000000</c:v>
                 </c:pt>
@@ -1581,13 +2023,28 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>664300000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2140000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2216000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2410000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3135000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3601000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF88-8742-9FAF-3FAB1B183A3D}"/>
+              <c16:uniqueId val="{00000002-117C-684F-9477-E5266466009F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1599,13 +2056,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="103838560"/>
-        <c:axId val="103840288"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="332816223"/>
+        <c:axId val="332814687"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103838560"/>
+        <c:axId val="332816223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +2090,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1645,7 +2102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103840288"/>
+        <c:crossAx val="332814687"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1653,7 +2110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103840288"/>
+        <c:axId val="332814687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103838560"/>
+        <c:crossAx val="332816223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1719,10 +2176,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33169290037092469"/>
-          <c:y val="0.89713158600665899"/>
+          <c:x val="0.33433752847009829"/>
+          <c:y val="0.89596315955839467"/>
           <c:w val="0.33661419925815056"/>
-          <c:h val="5.4772221608571474E-2"/>
+          <c:h val="6.5621469453478326E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1829,7 +2286,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2067,7 +2524,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2302,22 +2758,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB61837F-1BD9-DF91-1081-5CE84DD92AEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30734981-D244-E0F6-7C74-DD624D868A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,37 +2801,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0480000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2385,6 +2842,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2510,36 +2968,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>482.75</v>
-    <v>356.21499999999997</v>
-    <v>1.0185999999999999</v>
-    <v>-0.76</v>
-    <v>-1.5950000000000001E-3</v>
+    <v>508.9</v>
+    <v>365.10500000000002</v>
+    <v>1.0226</v>
+    <v>-5.37</v>
+    <v>-1.0894999999999998E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Roper Technologies, Inc. is a diversified technology company. The Company operates businesses that design and develop vertical software and technology enabled products for a variety of defensible niche markets. The Company operates through three segments: Application Software, Network Software and Technology Enabled Products. The Application Software segment includes Aderant, CBORD/Horizon, CliniSys, Data Innovations, Deltek, Frontline Education, IntelliTrans, PowerPlan, Strata, Vertafore. The Network Software segment includes ConstructConnect, DAT, Foundry, iPipeline, iTradeNetwork, Loadlink, MHA, SHP, SoftWriters. The Technology Enabled Products segment includes CIVCO Medical Solutions, FMI, Inovonics, IPA, Neptune, Northern Digital, rf IDEAS, Verathon. Aderant is a comprehensive management software solution for law and other professional services firms, including business development, calendar/docket matter management and others. CBORD/Horizon is a campus solutions software.</v>
     <v>15800</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>6901 Professional Pkwy East, Suite 200, SARASOTA, FL, 34240-8473 US</v>
-    <v>482.1</v>
+    <v>6496 University Parkway, SARASOTA, FL, 34240 US</v>
+    <v>495.76</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.849248159378</v>
+    <v>45218.847227950784</v>
     <v>0</v>
-    <v>473.65</v>
-    <v>50781610000</v>
+    <v>487.46</v>
+    <v>52024765077</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
-    <v>476.94</v>
-    <v>49.178100000000001</v>
-    <v>476.41</v>
-    <v>475.65</v>
-    <v>106592200</v>
+    <v>491.8</v>
+    <v>45.110399999999998</v>
+    <v>492.9</v>
+    <v>487.53</v>
+    <v>487.53</v>
+    <v>106710900</v>
     <v>ROP</v>
     <v>ROPER TECHNOLOGIES, INC. (XNAS:ROP)</v>
-    <v>330228</v>
-    <v>477678</v>
+    <v>428258</v>
+    <v>376973</v>
     <v>1981</v>
   </rv>
   <rv s="2">
@@ -2571,6 +3032,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2591,6 +3054,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2607,7 +3071,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2618,13 +3082,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2690,13 +3157,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2741,6 +3214,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2748,6 +3224,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3106,13 +3585,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP118"/>
+  <dimension ref="A1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AD90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH100" sqref="AH100"/>
+      <selection pane="bottomRight" activeCell="AJ96" sqref="AJ96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3222,19 +3701,19 @@
       <c r="AG1" s="8">
         <v>2022</v>
       </c>
-      <c r="AH1" s="32">
+      <c r="AH1" s="26">
         <v>2023</v>
       </c>
-      <c r="AI1" s="32">
+      <c r="AI1" s="26">
         <v>2024</v>
       </c>
-      <c r="AJ1" s="32">
+      <c r="AJ1" s="26">
         <v>2025</v>
       </c>
-      <c r="AK1" s="32">
+      <c r="AK1" s="26">
         <v>2026</v>
       </c>
-      <c r="AL1" s="32">
+      <c r="AL1" s="26">
         <v>2027</v>
       </c>
     </row>
@@ -3454,32 +3933,32 @@
       <c r="AG3" s="1">
         <v>5371800000</v>
       </c>
-      <c r="AH3" s="33">
+      <c r="AH3" s="27">
         <v>6044000000</v>
       </c>
-      <c r="AI3" s="33">
+      <c r="AI3" s="27">
         <v>6401000000</v>
       </c>
-      <c r="AJ3" s="33">
+      <c r="AJ3" s="27">
         <v>6692000000</v>
       </c>
-      <c r="AK3" s="33">
+      <c r="AK3" s="27">
         <v>7175000000</v>
       </c>
-      <c r="AL3" s="33">
+      <c r="AL3" s="27">
         <v>8000000000</v>
       </c>
       <c r="AM3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AN3" s="19" t="s">
+      <c r="AO3" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AO3" s="19" t="s">
+      <c r="AP3" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AP3" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3487,127 +3966,127 @@
         <v>94</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="42">
         <f>(C3/B3)-1</f>
         <v>-7.1999999999999953E-2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="42">
         <f>(D3/C3)-1</f>
         <v>0.90373563218390807</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="42">
         <f>(E3/D3)-1</f>
         <v>0.1147169811320754</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="42">
         <f t="shared" ref="F4:AL4" si="0">(F3/E3)-1</f>
         <v>0.1875423155044007</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="42">
         <f t="shared" si="0"/>
         <v>0.28677309007981755</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="42">
         <f t="shared" si="0"/>
         <v>0.32122286220646878</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="42">
         <f t="shared" si="0"/>
         <v>0.30516431924882625</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="42">
         <f t="shared" si="0"/>
         <v>4.6505652620760562E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="42">
         <f t="shared" si="0"/>
         <v>0.23695801620427193</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="42">
         <f t="shared" si="0"/>
         <v>0.16413431173868087</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="42">
         <f t="shared" si="0"/>
         <v>6.9093922312815303E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="42">
         <f t="shared" si="0"/>
         <v>4.8364512064813514E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="42">
         <f t="shared" si="0"/>
         <v>0.47524933217312992</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="42">
         <f t="shared" si="0"/>
         <v>0.49905647147140964</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="42">
         <f t="shared" si="0"/>
         <v>0.16990970131337924</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="42">
         <f t="shared" si="0"/>
         <v>0.23596576536954039</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="42">
         <f t="shared" si="0"/>
         <v>9.720134973066763E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="42">
         <f t="shared" si="0"/>
         <v>-0.11130169430677028</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="42">
         <f t="shared" si="0"/>
         <v>0.16414560797163258</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="42">
         <f t="shared" si="0"/>
         <v>0.17223709532494702</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="42">
         <f t="shared" si="0"/>
         <v>7.0215856556584466E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="42">
         <f t="shared" si="0"/>
         <v>8.1723701005749438E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="42">
         <f t="shared" si="0"/>
         <v>9.6156174184590659E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="42">
         <f t="shared" si="0"/>
         <v>9.2692085125372081E-3</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="42">
         <f t="shared" si="0"/>
         <v>5.7930518549741183E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="42">
         <f t="shared" si="0"/>
         <v>0.21571561442508758</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="42">
         <f t="shared" si="0"/>
         <v>0.12669184461497429</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="42">
         <f t="shared" si="0"/>
         <v>3.3826475574048498E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="42">
         <f t="shared" si="0"/>
         <v>2.986882313482897E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="42">
         <f t="shared" si="0"/>
         <v>4.5358325342403694E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="42">
         <f t="shared" si="0"/>
         <v>-7.0268960503998112E-2</v>
       </c>
@@ -3850,16 +4329,16 @@
         <v>3752800000</v>
       </c>
       <c r="AM6" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN6" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="AN6" s="19" t="s">
+      <c r="AO6" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="AO6" s="19" t="s">
+      <c r="AP6" s="67" t="s">
         <v>119</v>
-      </c>
-      <c r="AP6" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3967,16 +4446,16 @@
         <v>0.6986</v>
       </c>
       <c r="AN7" s="20">
-        <f>AG21</f>
-        <v>0.40489221490003352</v>
+        <f>AH21</f>
+        <v>0.40238252812706815</v>
       </c>
       <c r="AO7" s="20">
-        <f>AG30</f>
-        <v>0.28755724338210653</v>
+        <f>AH30</f>
+        <v>0.2883851753805427</v>
       </c>
       <c r="AP7" s="20">
-        <f>AG107/AG3</f>
-        <v>0.12366432108418035</v>
+        <f>AH107/AH3</f>
+        <v>0.35407015221707477</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -4544,16 +5023,16 @@
         <v>2228300000</v>
       </c>
       <c r="AM12" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN12" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AN12" s="19" t="s">
+      <c r="AO12" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AO12" s="19" t="s">
+      <c r="AP12" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AP12" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -4907,16 +5386,16 @@
         <v>2228300000</v>
       </c>
       <c r="AM15" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN15" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AN15" s="19" t="s">
+      <c r="AO15" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="AO15" s="19" t="s">
+      <c r="AP15" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="AP15" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5019,21 +5498,21 @@
       <c r="AG16" s="1">
         <v>3847300000</v>
       </c>
-      <c r="AM16" s="34">
+      <c r="AM16" s="28">
         <f>(AG35+AF35+AE35+AD35+AC35)/5</f>
         <v>6.2603860582215298E-3</v>
       </c>
-      <c r="AN16" s="35">
-        <f>AO101/AG3</f>
-        <v>9.4533694478573285</v>
-      </c>
-      <c r="AO16" s="35">
-        <f>AO101/AG28</f>
-        <v>32.874739431604844</v>
-      </c>
-      <c r="AP16" s="36">
-        <f>AO101/AG107</f>
-        <v>76.443790456119217</v>
+      <c r="AN16" s="31">
+        <f>AO102/AG3</f>
+        <v>9.684791890427789</v>
+      </c>
+      <c r="AO16" s="31">
+        <f>AO102/AG28</f>
+        <v>33.679526818799765</v>
+      </c>
+      <c r="AP16" s="33">
+        <f>AO102/AG107</f>
+        <v>78.315166456420286</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5238,16 +5717,16 @@
         <v>650100000</v>
       </c>
       <c r="AM18" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN18" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AN18" s="19" t="s">
+      <c r="AO18" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="AO18" s="19" t="s">
+      <c r="AP18" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="AP18" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5350,36 +5829,36 @@
       <c r="AG19" s="10">
         <v>2175000000</v>
       </c>
-      <c r="AH19" s="37">
+      <c r="AH19" s="29">
         <v>2432000000</v>
       </c>
-      <c r="AI19" s="37">
+      <c r="AI19" s="29">
         <v>2581000000</v>
       </c>
-      <c r="AJ19" s="37">
+      <c r="AJ19" s="29">
         <v>2768000000</v>
       </c>
-      <c r="AK19" s="37">
+      <c r="AK19" s="29">
         <v>3369000000</v>
       </c>
-      <c r="AL19" s="37">
+      <c r="AL19" s="29">
         <v>3880000000</v>
       </c>
-      <c r="AM19" s="38">
+      <c r="AM19" s="30">
         <f>AG40-AG56-AG61</f>
         <v>-5868900000</v>
       </c>
-      <c r="AN19" s="39">
-        <f>AO101/AH3</f>
-        <v>8.4019870946393116</v>
-      </c>
-      <c r="AO19" s="40">
-        <f>AI116/AH31</f>
-        <v>29.091743119266052</v>
-      </c>
-      <c r="AP19" s="41">
-        <f>AO101/AH106</f>
-        <v>24.297421052631577</v>
+      <c r="AN19" s="31">
+        <f>AO102/AH3</f>
+        <v>8.6076712569490397</v>
+      </c>
+      <c r="AO19" s="32">
+        <f>AI117/AH31</f>
+        <v>29.818348623853208</v>
+      </c>
+      <c r="AP19" s="33">
+        <f>AO102/AH107</f>
+        <v>24.3106378864486</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5633,31 +6112,34 @@
         <f>AG19/AG3</f>
         <v>0.40489221490003352</v>
       </c>
-      <c r="AH21" s="42">
+      <c r="AH21" s="34">
         <f>AH19/AH3</f>
         <v>0.40238252812706815</v>
       </c>
-      <c r="AI21" s="42">
+      <c r="AI21" s="34">
         <f t="shared" ref="AI21:AL21" si="4">AI19/AI3</f>
         <v>0.40321824714888299</v>
       </c>
-      <c r="AJ21" s="42">
+      <c r="AJ21" s="34">
         <f t="shared" si="4"/>
         <v>0.41362821279139272</v>
       </c>
-      <c r="AK21" s="42">
+      <c r="AK21" s="34">
         <f t="shared" si="4"/>
         <v>0.46954703832752615</v>
       </c>
-      <c r="AL21" s="42">
+      <c r="AL21" s="34">
         <f t="shared" si="4"/>
         <v>0.48499999999999999</v>
       </c>
+      <c r="AN21" s="43" t="s">
+        <v>167</v>
+      </c>
       <c r="AO21" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP21" s="19" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5760,13 +6242,17 @@
       <c r="AG22" s="10">
         <v>1524500000</v>
       </c>
-      <c r="AO22" s="43">
-        <f>(-1*AG98)/AO101</f>
-        <v>5.1652556900027395E-3</v>
-      </c>
-      <c r="AP22" s="44">
-        <f>AG107/AO101</f>
-        <v>1.3081507262176209E-2</v>
+      <c r="AN22" s="17">
+        <f>SUM(AH29:AL29)/5</f>
+        <v>0.16687301627859014</v>
+      </c>
+      <c r="AO22" s="35">
+        <f>(-1*AG98)/AO102</f>
+        <v>5.0418295904225445E-3</v>
+      </c>
+      <c r="AP22" s="36">
+        <f>AH107/AO102</f>
+        <v>4.1134255903561741E-2</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -6374,19 +6860,19 @@
       <c r="AG28" s="11">
         <v>1544700000</v>
       </c>
-      <c r="AH28" s="45">
+      <c r="AH28" s="37">
         <v>1743000000</v>
       </c>
-      <c r="AI28" s="45">
+      <c r="AI28" s="37">
         <v>1886000000</v>
       </c>
-      <c r="AJ28" s="45">
+      <c r="AJ28" s="37">
         <v>2466000000</v>
       </c>
-      <c r="AK28" s="45">
+      <c r="AK28" s="37">
         <v>2862000000</v>
       </c>
-      <c r="AL28" s="45">
+      <c r="AL28" s="37">
         <v>3308000000</v>
       </c>
     </row>
@@ -6642,23 +7128,23 @@
         <f>AG28/AG3</f>
         <v>0.28755724338210653</v>
       </c>
-      <c r="AH30" s="46">
+      <c r="AH30" s="38">
         <f>AH28/AH3</f>
         <v>0.2883851753805427</v>
       </c>
-      <c r="AI30" s="46">
+      <c r="AI30" s="38">
         <f t="shared" ref="AI30:AL30" si="6">AI28/AI3</f>
         <v>0.29464146227152005</v>
       </c>
-      <c r="AJ30" s="46">
+      <c r="AJ30" s="38">
         <f t="shared" si="6"/>
         <v>0.36849970113568442</v>
       </c>
-      <c r="AK30" s="46">
+      <c r="AK30" s="38">
         <f t="shared" si="6"/>
         <v>0.39888501742160276</v>
       </c>
-      <c r="AL30" s="46">
+      <c r="AL30" s="38">
         <f t="shared" si="6"/>
         <v>0.41349999999999998</v>
       </c>
@@ -6763,19 +7249,19 @@
       <c r="AG31" s="12">
         <v>43.45</v>
       </c>
-      <c r="AH31" s="47">
+      <c r="AH31" s="39">
         <v>16.350000000000001</v>
       </c>
-      <c r="AI31" s="47">
+      <c r="AI31" s="39">
         <v>17.690000000000001</v>
       </c>
-      <c r="AJ31" s="47">
+      <c r="AJ31" s="39">
         <v>23.13</v>
       </c>
-      <c r="AK31" s="47">
+      <c r="AK31" s="39">
         <v>26.85</v>
       </c>
-      <c r="AL31" s="47">
+      <c r="AL31" s="39">
         <v>31.03</v>
       </c>
     </row>
@@ -6880,7 +7366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -6980,8 +7466,12 @@
       <c r="AG33" s="1">
         <v>105900000</v>
       </c>
+      <c r="AH33" s="1" cm="1">
+        <f t="array" ref="AH33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>106710900</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -7081,8 +7571,12 @@
       <c r="AG34" s="1">
         <v>106800000</v>
       </c>
+      <c r="AH34" s="1" cm="1">
+        <f t="array" ref="AH34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>106710900</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>103</v>
       </c>
@@ -7092,7 +7586,7 @@
         <v>0.47801418439716314</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AG35" si="7">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AH35" si="7">(D34-C34)/C34</f>
         <v>9.8025774609267896E-3</v>
       </c>
       <c r="E35" s="22">
@@ -7211,8 +7705,12 @@
         <f t="shared" si="7"/>
         <v>1.0406811731315043E-2</v>
       </c>
+      <c r="AH35" s="22">
+        <f t="shared" si="7"/>
+        <v>-8.3426966292134835E-4</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -7313,7 +7811,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -7414,7 +7912,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -7515,7 +8013,7 @@
         <v>792800000</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -7616,7 +8114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -7717,7 +8215,7 @@
         <v>792800000</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -7818,7 +8316,7 @@
         <v>877000000</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -7919,7 +8417,7 @@
         <v>111300000</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -8020,7 +8518,7 @@
         <v>151300000</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -8121,7 +8619,7 @@
         <v>1932400000</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -8222,7 +8720,7 @@
         <v>85300000</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -8323,7 +8821,7 @@
         <v>15946100000</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -8424,7 +8922,7 @@
         <v>8030700000</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -11991,7 +12489,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -12091,12 +12589,8 @@
       <c r="AG83" s="1">
         <v>-43100000</v>
       </c>
-      <c r="AN83" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO83" s="67"/>
     </row>
-    <row r="84" spans="1:41" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -12196,12 +12690,18 @@
       <c r="AG84" s="1">
         <v>21300000</v>
       </c>
-      <c r="AN84" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO84" s="68"/>
+      <c r="AH84" s="44"/>
+      <c r="AI84" s="44"/>
+      <c r="AJ84" s="44"/>
+      <c r="AK84" s="44"/>
+      <c r="AL84" s="44"/>
+      <c r="AM84" s="44"/>
+      <c r="AN84" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO84" s="73"/>
     </row>
-    <row r="85" spans="1:41" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -12301,13 +12801,16 @@
       <c r="AG85" s="1">
         <v>52900000</v>
       </c>
-      <c r="AN85" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO85" s="24">
-        <f>AG17</f>
-        <v>192400000</v>
-      </c>
+      <c r="AH85" s="44"/>
+      <c r="AI85" s="44"/>
+      <c r="AJ85" s="44"/>
+      <c r="AK85" s="44"/>
+      <c r="AL85" s="44"/>
+      <c r="AM85" s="44"/>
+      <c r="AN85" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO85" s="76"/>
     </row>
     <row r="86" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -12409,12 +12912,18 @@
       <c r="AG86" s="1">
         <v>-1330900000</v>
       </c>
+      <c r="AH86" s="44"/>
+      <c r="AI86" s="44"/>
+      <c r="AJ86" s="44"/>
+      <c r="AK86" s="44"/>
+      <c r="AL86" s="44"/>
+      <c r="AM86" s="44"/>
       <c r="AN86" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO86" s="24">
-        <f>AG56</f>
-        <v>699200000</v>
+        <v>135</v>
+      </c>
+      <c r="AO86" s="45">
+        <f>AG17</f>
+        <v>192400000</v>
       </c>
     </row>
     <row r="87" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -12517,12 +13026,18 @@
       <c r="AG87" s="10">
         <v>734600000</v>
       </c>
+      <c r="AH87" s="44"/>
+      <c r="AI87" s="44"/>
+      <c r="AJ87" s="44"/>
+      <c r="AK87" s="44"/>
+      <c r="AL87" s="44"/>
+      <c r="AM87" s="44"/>
       <c r="AN87" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO87" s="24">
-        <f>AG61</f>
-        <v>5962500000</v>
+        <v>136</v>
+      </c>
+      <c r="AO87" s="45">
+        <f>AG56</f>
+        <v>699200000</v>
       </c>
     </row>
     <row r="88" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -12625,12 +13140,18 @@
       <c r="AG88" s="1">
         <v>-40100000</v>
       </c>
-      <c r="AN88" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO88" s="49">
-        <f>AO85/(AO86+AO87)</f>
-        <v>2.8881516729963821E-2</v>
+      <c r="AH88" s="44"/>
+      <c r="AI88" s="44"/>
+      <c r="AJ88" s="44"/>
+      <c r="AK88" s="44"/>
+      <c r="AL88" s="44"/>
+      <c r="AM88" s="44"/>
+      <c r="AN88" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO88" s="45">
+        <f>AG61</f>
+        <v>5962500000</v>
       </c>
     </row>
     <row r="89" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12765,12 +13286,18 @@
         <f t="shared" si="9"/>
         <v>7.4649093413753304E-3</v>
       </c>
-      <c r="AN89" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO89" s="24">
-        <f>AG27</f>
-        <v>296400000</v>
+      <c r="AH89" s="44"/>
+      <c r="AI89" s="44"/>
+      <c r="AJ89" s="44"/>
+      <c r="AK89" s="44"/>
+      <c r="AL89" s="44"/>
+      <c r="AM89" s="44"/>
+      <c r="AN89" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO89" s="46">
+        <f>AO86/(AO87+AO88)</f>
+        <v>2.8881516729963821E-2</v>
       </c>
     </row>
     <row r="90" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -12873,12 +13400,18 @@
       <c r="AG90" s="1">
         <v>-4280100000</v>
       </c>
+      <c r="AH90" s="44"/>
+      <c r="AI90" s="44"/>
+      <c r="AJ90" s="44"/>
+      <c r="AK90" s="44"/>
+      <c r="AL90" s="44"/>
+      <c r="AM90" s="44"/>
       <c r="AN90" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO90" s="24">
-        <f>AG25</f>
-        <v>1282000000</v>
+        <v>108</v>
+      </c>
+      <c r="AO90" s="45">
+        <f>AG27</f>
+        <v>296400000</v>
       </c>
     </row>
     <row r="91" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -12981,12 +13514,18 @@
       <c r="AG91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AN91" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO91" s="49">
-        <f>AO89/AO90</f>
-        <v>0.23120124804992201</v>
+      <c r="AH91" s="44"/>
+      <c r="AI91" s="44"/>
+      <c r="AJ91" s="44"/>
+      <c r="AK91" s="44"/>
+      <c r="AL91" s="44"/>
+      <c r="AM91" s="44"/>
+      <c r="AN91" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO91" s="45">
+        <f>AG25</f>
+        <v>1282000000</v>
       </c>
     </row>
     <row r="92" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -13089,15 +13628,21 @@
       <c r="AG92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AN92" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO92" s="49">
-        <f>AO88*(1-AO91)</f>
-        <v>2.2204074016421483E-2</v>
+      <c r="AH92" s="44"/>
+      <c r="AI92" s="44"/>
+      <c r="AJ92" s="44"/>
+      <c r="AK92" s="44"/>
+      <c r="AL92" s="44"/>
+      <c r="AM92" s="44"/>
+      <c r="AN92" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO92" s="46">
+        <f>AO90/AO91</f>
+        <v>0.23120124804992201</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -13197,12 +13742,21 @@
       <c r="AG93" s="1">
         <v>5489600000</v>
       </c>
-      <c r="AN93" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO93" s="68"/>
+      <c r="AH93" s="44"/>
+      <c r="AI93" s="44"/>
+      <c r="AJ93" s="44"/>
+      <c r="AK93" s="44"/>
+      <c r="AL93" s="44"/>
+      <c r="AM93" s="44"/>
+      <c r="AN93" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO93" s="46">
+        <f>AO89*(1-AO92)</f>
+        <v>2.2204074016421483E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:41" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -13302,13 +13856,16 @@
       <c r="AG94" s="10">
         <v>1209500000</v>
       </c>
-      <c r="AN94" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO94" s="50">
-        <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
-      </c>
+      <c r="AH94" s="44"/>
+      <c r="AI94" s="44"/>
+      <c r="AJ94" s="44"/>
+      <c r="AK94" s="44"/>
+      <c r="AL94" s="44"/>
+      <c r="AM94" s="44"/>
+      <c r="AN94" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO94" s="76"/>
     </row>
     <row r="95" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -13410,12 +13967,18 @@
       <c r="AG95" s="1">
         <v>-1270000000</v>
       </c>
+      <c r="AH95" s="44"/>
+      <c r="AI95" s="44"/>
+      <c r="AJ95" s="44"/>
+      <c r="AK95" s="44"/>
+      <c r="AL95" s="44"/>
+      <c r="AM95" s="44"/>
       <c r="AN95" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO95" s="51" cm="1">
-        <f t="array" ref="AO95">_FV(A1,"Beta")</f>
-        <v>1.0185999999999999</v>
+        <v>142</v>
+      </c>
+      <c r="AO95" s="68">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -13518,11 +14081,18 @@
       <c r="AG96" s="1">
         <v>14300000</v>
       </c>
+      <c r="AH96" s="44"/>
+      <c r="AI96" s="44"/>
+      <c r="AJ96" s="44"/>
+      <c r="AK96" s="44"/>
+      <c r="AL96" s="44"/>
+      <c r="AM96" s="44"/>
       <c r="AN96" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO96" s="50">
-        <v>8.4000000000000005E-2</v>
+        <v>143</v>
+      </c>
+      <c r="AO96" s="48" cm="1">
+        <f t="array" ref="AO96">_FV(A1,"Beta")</f>
+        <v>1.0226</v>
       </c>
     </row>
     <row r="97" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -13625,15 +14195,20 @@
       <c r="AG97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AN97" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO97" s="49">
-        <f>(AO94)+((AO95)*(AO96-AO94))</f>
-        <v>8.4809471999999997E-2</v>
+      <c r="AH97" s="44"/>
+      <c r="AI97" s="44"/>
+      <c r="AJ97" s="44"/>
+      <c r="AK97" s="44"/>
+      <c r="AL97" s="44"/>
+      <c r="AM97" s="44"/>
+      <c r="AN97" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO97" s="47">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:41" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -13733,12 +14308,21 @@
       <c r="AG98" s="1">
         <v>-262300000</v>
       </c>
-      <c r="AN98" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO98" s="68"/>
+      <c r="AH98" s="44"/>
+      <c r="AI98" s="44"/>
+      <c r="AJ98" s="44"/>
+      <c r="AK98" s="44"/>
+      <c r="AL98" s="44"/>
+      <c r="AM98" s="44"/>
+      <c r="AN98" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO98" s="46">
+        <f>(AO95)+((AO96)*(AO97-AO95))</f>
+        <v>8.4790547999999993E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:41" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -13838,13 +14422,16 @@
       <c r="AG99" s="1">
         <v>52700000</v>
       </c>
-      <c r="AN99" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO99" s="24">
-        <f>AO86+AO87</f>
-        <v>6661700000</v>
-      </c>
+      <c r="AH99" s="44"/>
+      <c r="AI99" s="44"/>
+      <c r="AJ99" s="44"/>
+      <c r="AK99" s="44"/>
+      <c r="AL99" s="44"/>
+      <c r="AM99" s="44"/>
+      <c r="AN99" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO99" s="76"/>
     </row>
     <row r="100" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -13946,12 +14533,18 @@
       <c r="AG100" s="10">
         <v>-1465300000</v>
       </c>
-      <c r="AN100" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO100" s="49">
-        <f>AO99/AO103</f>
-        <v>0.11596998849822547</v>
+      <c r="AH100" s="44"/>
+      <c r="AI100" s="44"/>
+      <c r="AJ100" s="44"/>
+      <c r="AK100" s="44"/>
+      <c r="AL100" s="44"/>
+      <c r="AM100" s="44"/>
+      <c r="AN100" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO100" s="45">
+        <f>AO87+AO88</f>
+        <v>6661700000</v>
       </c>
     </row>
     <row r="101" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14054,12 +14647,18 @@
       <c r="AG101" s="1">
         <v>-37500000</v>
       </c>
-      <c r="AN101" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO101" s="52" cm="1">
-        <f t="array" ref="AO101">_FV(A1,"Market cap",TRUE)</f>
-        <v>50781610000</v>
+      <c r="AH101" s="44"/>
+      <c r="AI101" s="44"/>
+      <c r="AJ101" s="44"/>
+      <c r="AK101" s="44"/>
+      <c r="AL101" s="44"/>
+      <c r="AM101" s="44"/>
+      <c r="AN101" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO101" s="46">
+        <f>AO100/AO104</f>
+        <v>0.1135133968498438</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14162,12 +14761,18 @@
       <c r="AG102" s="10">
         <v>441300000</v>
       </c>
-      <c r="AN102" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO102" s="49">
-        <f>AO101/AO103</f>
-        <v>0.88403001150177452</v>
+      <c r="AH102" s="44"/>
+      <c r="AI102" s="44"/>
+      <c r="AJ102" s="44"/>
+      <c r="AK102" s="44"/>
+      <c r="AL102" s="44"/>
+      <c r="AM102" s="44"/>
+      <c r="AN102" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO102" s="49" cm="1">
+        <f t="array" ref="AO102">_FV(A1,"Market cap",TRUE)</f>
+        <v>52024765077</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14270,15 +14875,21 @@
       <c r="AG103" s="1">
         <v>351500000</v>
       </c>
-      <c r="AN103" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO103" s="53">
-        <f>AO99+AO101</f>
-        <v>57443310000</v>
+      <c r="AH103" s="44"/>
+      <c r="AI103" s="44"/>
+      <c r="AJ103" s="44"/>
+      <c r="AK103" s="44"/>
+      <c r="AL103" s="44"/>
+      <c r="AM103" s="44"/>
+      <c r="AN103" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO103" s="46">
+        <f>AO102/AO104</f>
+        <v>0.88648660315015615</v>
       </c>
     </row>
-    <row r="104" spans="1:41" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:41" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -14378,17 +14989,28 @@
       <c r="AG104" s="11">
         <v>792800000</v>
       </c>
-      <c r="AN104" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO104" s="68"/>
+      <c r="AH104" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI104" s="74"/>
+      <c r="AJ104" s="74"/>
+      <c r="AK104" s="74"/>
+      <c r="AL104" s="74"/>
+      <c r="AM104" s="44"/>
+      <c r="AN104" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO104" s="50">
+        <f>AO100+AO102</f>
+        <v>58686465077</v>
+      </c>
     </row>
-    <row r="105" spans="1:41" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:AF105" si="10">(B22*(1-$AO$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:AG105" si="10">(B22*(1-$AO$92))+B77+B88+B81</f>
         <v>12063744.149765991</v>
       </c>
       <c r="C105" s="1">
@@ -14512,39 +15134,36 @@
         <v>1840875912.6365054</v>
       </c>
       <c r="AG105" s="1">
-        <f>(AG22*(1-$AO$91))+AG77+AG88+AG81</f>
+        <f t="shared" si="10"/>
         <v>1796933697.347894</v>
       </c>
-      <c r="AH105" s="29">
-        <f>AG105*(1+$AO$106)</f>
-        <v>1946733912.2151058</v>
-      </c>
-      <c r="AI105" s="29">
-        <f t="shared" ref="AI105:AL105" si="11">AH105*(1+$AO$106)</f>
-        <v>2109022125.0576365</v>
-      </c>
-      <c r="AJ105" s="29">
-        <f t="shared" si="11"/>
-        <v>2284839389.7456012</v>
-      </c>
-      <c r="AK105" s="29">
-        <f t="shared" si="11"/>
-        <v>2475313546.9313211</v>
-      </c>
-      <c r="AL105" s="29">
-        <f t="shared" si="11"/>
-        <v>2681666458.9732633</v>
-      </c>
-      <c r="AM105" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN105" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO105" s="31">
-        <f>(AO100*AO92)+(AO102*AO97)</f>
-        <v>7.7549124715917572E-2</v>
-      </c>
+      <c r="AH105" s="69">
+        <f>AH107/AH3</f>
+        <v>0.35407015221707477</v>
+      </c>
+      <c r="AI105" s="69">
+        <f>AI107/AI3</f>
+        <v>0.34619590688954849</v>
+      </c>
+      <c r="AJ105" s="69">
+        <f>AJ107/AJ3</f>
+        <v>0.36013150029886432</v>
+      </c>
+      <c r="AK105" s="69">
+        <f>AK107/AK3</f>
+        <v>0.43693379790940767</v>
+      </c>
+      <c r="AL105" s="69">
+        <f>AL107/AL3</f>
+        <v>0.450125</v>
+      </c>
+      <c r="AM105" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN105" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO105" s="76"/>
     </row>
     <row r="106" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -14552,153 +15171,159 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:AG106" si="12">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AG106" si="11">(C107/B107)-1</f>
         <v>8.5714285714285632E-2</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.6973684210526314</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.86120996441281139</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.8974358974358978</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.22173913043478266</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8.1850533807829251E-2</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.73684210526315796</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.42500000000000004</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.6042982456140349</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.80965535636038033</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.16631749607841073</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.23132000656656859</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.5083208752936539</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.68019569830499593</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.10194941120063616</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.36163378692189152</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.28910105196047176</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.15523837078471081</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37859982319225782</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.19103342400132495</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.14000492052285907</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.18856605785936909</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.6277096148153127E-2</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.11181905263721714</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.4859085892904096E-2</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.27202848608661667</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.16728768811502825</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.997812613926353E-2</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.525770248052031E-2</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.32048502912884436</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.65921099882008927</v>
       </c>
-      <c r="AH106" s="25">
-        <v>2090000000</v>
-      </c>
-      <c r="AI106" s="25">
-        <v>2166000000</v>
-      </c>
-      <c r="AJ106" s="25">
-        <v>2287000000</v>
-      </c>
-      <c r="AK106" s="25">
-        <v>2780000000</v>
-      </c>
-      <c r="AL106" s="25">
-        <v>3633000000</v>
-      </c>
-      <c r="AM106" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN106" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO106" s="28">
-        <f>(SUM(AH4:AL4)/5)</f>
-        <v>8.3364352890873322E-2</v>
+      <c r="AH106" s="52">
+        <f>(AH107/AG105)-1</f>
+        <v>0.19091761880721569</v>
+      </c>
+      <c r="AI106" s="52">
+        <f>(AI107/AH107)-1</f>
+        <v>3.5514018691588767E-2</v>
+      </c>
+      <c r="AJ106" s="52">
+        <f>(AJ107/AI107)-1</f>
+        <v>8.7545126353790526E-2</v>
+      </c>
+      <c r="AK106" s="52">
+        <f>(AK107/AJ107)-1</f>
+        <v>0.30082987551867224</v>
+      </c>
+      <c r="AL106" s="52">
+        <f>(AL107/AK107)-1</f>
+        <v>0.14864433811802225</v>
+      </c>
+      <c r="AM106" s="66">
+        <f>SUM(AH106:AL106)/5</f>
+        <v>0.15269019549785789</v>
+      </c>
+      <c r="AN106" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO106" s="53">
+        <f>(AO101*AO93)+(AO103*AO98)</f>
+        <v>7.7686144741269628E-2</v>
       </c>
     </row>
     <row r="107" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -14801,22 +15426,30 @@
       <c r="AG107" s="1">
         <v>664300000</v>
       </c>
-      <c r="AH107" s="26"/>
-      <c r="AI107" s="26"/>
-      <c r="AJ107" s="26"/>
-      <c r="AK107" s="26"/>
-      <c r="AL107" s="64">
-        <f>AL106*(1+AO107)/(AO108-AO107)</f>
-        <v>70863692214.306702</v>
-      </c>
-      <c r="AM107" s="54" t="s">
-        <v>155</v>
+      <c r="AH107" s="54">
+        <v>2140000000</v>
+      </c>
+      <c r="AI107" s="54">
+        <v>2216000000</v>
+      </c>
+      <c r="AJ107" s="54">
+        <v>2410000000</v>
+      </c>
+      <c r="AK107" s="54">
+        <v>3135000000</v>
+      </c>
+      <c r="AL107" s="54">
+        <v>3601000000</v>
+      </c>
+      <c r="AM107" s="51" t="s">
+        <v>109</v>
       </c>
       <c r="AN107" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO107" s="56">
-        <v>2.5000000000000001E-2</v>
+        <v>110</v>
+      </c>
+      <c r="AO107" s="24">
+        <f>(SUM(AH4:AL4)/5)</f>
+        <v>8.3364352890873322E-2</v>
       </c>
     </row>
     <row r="108" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -14853,132 +15486,212 @@
       <c r="AE108" s="13"/>
       <c r="AF108" s="13"/>
       <c r="AG108" s="13"/>
-      <c r="AH108" s="64">
-        <f t="shared" ref="AH108:AK108" si="13">AH107+AH106</f>
-        <v>2090000000</v>
-      </c>
-      <c r="AI108" s="64">
-        <f t="shared" si="13"/>
-        <v>2166000000</v>
-      </c>
-      <c r="AJ108" s="64">
-        <f t="shared" si="13"/>
-        <v>2287000000</v>
-      </c>
-      <c r="AK108" s="64">
-        <f t="shared" si="13"/>
-        <v>2780000000</v>
-      </c>
-      <c r="AL108" s="64">
-        <f>AL107+AL106</f>
-        <v>74496692214.306702</v>
-      </c>
-      <c r="AM108" s="54" t="s">
+      <c r="AH108" s="71"/>
+      <c r="AI108" s="71"/>
+      <c r="AJ108" s="71"/>
+      <c r="AK108" s="71"/>
+      <c r="AL108" s="56">
+        <f>AL107*(1+AO108)/(AO109-AO108)</f>
+        <v>70056843561.544174</v>
+      </c>
+      <c r="AM108" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="AN108" s="57" t="s">
+      <c r="AN108" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO108" s="41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:41" ht="19" x14ac:dyDescent="0.2">
+      <c r="AH109" s="56">
+        <f t="shared" ref="AH109:AK109" si="12">AH108+AH107</f>
+        <v>2140000000</v>
+      </c>
+      <c r="AI109" s="56">
+        <f t="shared" si="12"/>
+        <v>2216000000</v>
+      </c>
+      <c r="AJ109" s="56">
+        <f t="shared" si="12"/>
+        <v>2410000000</v>
+      </c>
+      <c r="AK109" s="56">
+        <f t="shared" si="12"/>
+        <v>3135000000</v>
+      </c>
+      <c r="AL109" s="56">
+        <f>AL108+AL107</f>
+        <v>73657843561.544174</v>
+      </c>
+      <c r="AM109" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN109" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO109" s="24">
+        <f>AO106</f>
+        <v>7.7686144741269628E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41" ht="19" x14ac:dyDescent="0.2">
+      <c r="AH110" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI110" s="75"/>
+      <c r="AJ110" s="44"/>
+      <c r="AK110" s="44"/>
+      <c r="AL110" s="44"/>
+      <c r="AM110" s="44"/>
+      <c r="AN110" s="44"/>
+      <c r="AO110" s="44"/>
+    </row>
+    <row r="111" spans="1:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH111" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="AO108" s="28">
-        <f>AO105</f>
-        <v>7.7549124715917572E-2</v>
-      </c>
+      <c r="AI111" s="49">
+        <f>NPV(AO109,AH109,AI109,AJ109,AK109,AL109)</f>
+        <v>58814193028.298012</v>
+      </c>
+      <c r="AJ111" s="44"/>
+      <c r="AK111" s="44"/>
+      <c r="AL111" s="44"/>
+      <c r="AM111" s="44"/>
+      <c r="AN111" s="44"/>
+      <c r="AO111" s="44"/>
     </row>
-    <row r="109" spans="1:41" ht="19" x14ac:dyDescent="0.25">
-      <c r="AH109" s="65" t="s">
+    <row r="112" spans="1:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH112" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="AI109" s="65"/>
-    </row>
-    <row r="110" spans="1:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH110" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI110" s="52">
-        <f>NPV(AO108,AH108,AI108,AJ108,AK108,AL108)</f>
-        <v>58975410137.216339</v>
-      </c>
-    </row>
-    <row r="111" spans="1:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH111" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI111" s="52">
+      <c r="AI112" s="49">
         <f>AG40</f>
         <v>792800000</v>
       </c>
+      <c r="AJ112" s="44"/>
+      <c r="AK112" s="44"/>
+      <c r="AL112" s="44"/>
+      <c r="AM112" s="44"/>
+      <c r="AN112" s="44"/>
+      <c r="AO112" s="44"/>
     </row>
-    <row r="112" spans="1:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH112" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI112" s="52">
-        <f>AO99</f>
+    <row r="113" spans="34:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH113" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI113" s="49">
+        <f>AO100</f>
         <v>6661700000</v>
       </c>
+      <c r="AJ113" s="44"/>
+      <c r="AK113" s="44"/>
+      <c r="AL113" s="44"/>
+      <c r="AM113" s="44"/>
+      <c r="AN113" s="44"/>
+      <c r="AO113" s="44"/>
     </row>
-    <row r="113" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH113" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI113" s="52">
-        <f>AI110+AI111-AI112</f>
-        <v>53106510137.216339</v>
-      </c>
+    <row r="114" spans="34:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH114" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI114" s="49">
+        <f>AI111+AI112-AI113</f>
+        <v>52945293028.298012</v>
+      </c>
+      <c r="AJ114" s="44"/>
+      <c r="AK114" s="44"/>
+      <c r="AL114" s="44"/>
+      <c r="AM114" s="44"/>
+      <c r="AN114" s="44"/>
+      <c r="AO114" s="44"/>
     </row>
-    <row r="114" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH114" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI114" s="58">
+    <row r="115" spans="34:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH115" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI115" s="60">
         <f>AG34*(1+(5*AM16))</f>
         <v>110143046.1550903</v>
       </c>
+      <c r="AJ115" s="44"/>
+      <c r="AK115" s="44"/>
+      <c r="AL115" s="44"/>
+      <c r="AM115" s="44"/>
+      <c r="AN115" s="44"/>
+      <c r="AO115" s="44"/>
     </row>
-    <row r="115" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH115" s="59" t="s">
+    <row r="116" spans="34:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH116" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI116" s="62">
+        <f>AI114/AI115</f>
+        <v>480.6957395544224</v>
+      </c>
+      <c r="AJ116" s="44"/>
+      <c r="AK116" s="44"/>
+      <c r="AL116" s="44"/>
+      <c r="AM116" s="44"/>
+      <c r="AN116" s="44"/>
+      <c r="AO116" s="44"/>
+    </row>
+    <row r="117" spans="34:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH117" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI117" s="63" cm="1">
+        <f t="array" ref="AI117">_FV(A1,"Price",TRUE)</f>
+        <v>487.53</v>
+      </c>
+      <c r="AJ117" s="44"/>
+      <c r="AK117" s="44"/>
+      <c r="AL117" s="44"/>
+      <c r="AM117" s="44"/>
+      <c r="AN117" s="44"/>
+      <c r="AO117" s="44"/>
+    </row>
+    <row r="118" spans="34:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH118" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="AI115" s="60">
-        <f>AI113/AI114</f>
-        <v>482.15944620269613</v>
-      </c>
+      <c r="AI118" s="64">
+        <f>(AI116/AI117)-1</f>
+        <v>-1.4018133131453614E-2</v>
+      </c>
+      <c r="AJ118" s="44"/>
+      <c r="AK118" s="44"/>
+      <c r="AL118" s="44"/>
+      <c r="AM118" s="44"/>
+      <c r="AN118" s="44"/>
+      <c r="AO118" s="44"/>
     </row>
-    <row r="116" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH116" s="58" t="s">
+    <row r="119" spans="34:41" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH119" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="AI116" s="61" cm="1">
-        <f t="array" ref="AI116">_FV(A1,"Price",TRUE)</f>
-        <v>475.65</v>
-      </c>
-    </row>
-    <row r="117" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH117" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI117" s="62">
-        <f>(AI115/AI116)-1</f>
-        <v>1.3685369920521717E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH118" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI118" s="63" t="str">
-        <f>IF(AI115&gt;AI116,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
+      <c r="AI119" s="65" t="str">
+        <f>IF(AI116&gt;AI117,"BUY","SELL")</f>
+        <v>SELL</v>
+      </c>
+      <c r="AJ119" s="44"/>
+      <c r="AK119" s="44"/>
+      <c r="AL119" s="44"/>
+      <c r="AM119" s="44"/>
+      <c r="AN119" s="44"/>
+      <c r="AO119" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AH109:AI109"/>
-    <mergeCell ref="AN83:AO83"/>
+  <mergeCells count="7">
     <mergeCell ref="AN84:AO84"/>
-    <mergeCell ref="AN93:AO93"/>
-    <mergeCell ref="AN98:AO98"/>
-    <mergeCell ref="AN104:AO104"/>
+    <mergeCell ref="AH104:AL104"/>
+    <mergeCell ref="AH110:AI110"/>
+    <mergeCell ref="AN105:AO105"/>
+    <mergeCell ref="AN99:AO99"/>
+    <mergeCell ref="AN85:AO85"/>
+    <mergeCell ref="AN94:AO94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ROP" display="ROIC.AI | ROP" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -15047,7 +15760,7 @@
     <hyperlink ref="AG36" r:id="rId64" tooltip="https://www.sec.gov/Archives/edgar/data/882835/000088283523000016/0000882835-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="AG74" r:id="rId65" tooltip="https://www.sec.gov/Archives/edgar/data/882835/000088283523000016/0000882835-23-000016-index.htm" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="AH1" r:id="rId66" display="https://finbox.com/NYSE:ROP/explorer/revenue_proj" xr:uid="{B6A4B30A-F086-E24E-BBDC-865DCD1DD1FC}"/>
-    <hyperlink ref="AM106" r:id="rId67" xr:uid="{C3AB093A-BFA2-6D4F-90E0-9F56D07A5165}"/>
+    <hyperlink ref="AM107" r:id="rId67" xr:uid="{C3AB093A-BFA2-6D4F-90E0-9F56D07A5165}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId68"/>

--- a/Industrials/Roper Technologies.xlsx
+++ b/Industrials/Roper Technologies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B3232-4856-A141-9E6C-FFE84CE3D0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0050D5C3-EF58-0748-9622-21A94B3615B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2804,13 +2804,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2826,14 +2828,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2843,6 +2845,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2969,12 +2973,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>508.9</v>
-    <v>365.10500000000002</v>
-    <v>1.0226</v>
-    <v>-5.37</v>
-    <v>-1.0894999999999998E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>388.66</v>
+    <v>1.0170999999999999</v>
+    <v>-4.8099999999999996</v>
+    <v>-1.0013000000000001E-2</v>
+    <v>0.56000000000000005</v>
+    <v>1.178E-3</v>
     <v>USD</v>
     <v>Roper Technologies, Inc. is a diversified technology company. The Company operates businesses that design and develop vertical software and technology enabled products for a variety of defensible niche markets. The Company operates through three segments: Application Software, Network Software and Technology Enabled Products. The Application Software segment includes Aderant, CBORD/Horizon, CliniSys, Data Innovations, Deltek, Frontline Education, IntelliTrans, PowerPlan, Strata, Vertafore. The Network Software segment includes ConstructConnect, DAT, Foundry, iPipeline, iTradeNetwork, Loadlink, MHA, SHP, SoftWriters. The Technology Enabled Products segment includes CIVCO Medical Solutions, FMI, Inovonics, IPA, Neptune, Northern Digital, rf IDEAS, Verathon. Aderant is a comprehensive management software solution for law and other professional services firms, including business development, calendar/docket matter management and others. CBORD/Horizon is a campus solutions software.</v>
     <v>15800</v>
@@ -2982,25 +2986,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6496 University Parkway, SARASOTA, FL, 34240 US</v>
-    <v>495.76</v>
+    <v>482.25</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.847227950784</v>
+    <v>45226.997232510941</v>
     <v>0</v>
-    <v>487.46</v>
-    <v>52024765077</v>
+    <v>474.46</v>
+    <v>50748500000</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
     <v>ROPER TECHNOLOGIES, INC.</v>
-    <v>491.8</v>
-    <v>45.110399999999998</v>
-    <v>492.9</v>
-    <v>487.53</v>
-    <v>487.53</v>
+    <v>478.71</v>
+    <v>41.190199999999997</v>
+    <v>480.38</v>
+    <v>475.57</v>
+    <v>476.13</v>
     <v>106710900</v>
     <v>ROP</v>
     <v>ROPER TECHNOLOGIES, INC. (XNAS:ROP)</v>
-    <v>428258</v>
-    <v>376973</v>
+    <v>450141</v>
+    <v>413686</v>
     <v>1981</v>
   </rv>
   <rv s="2">
@@ -3165,9 +3169,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3588,10 +3592,10 @@
   <dimension ref="A1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ96" sqref="AJ96"/>
+      <selection pane="bottomRight" activeCell="AI95" sqref="AI95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5504,15 +5508,15 @@
       </c>
       <c r="AN16" s="31">
         <f>AO102/AG3</f>
-        <v>9.684791890427789</v>
+        <v>9.4472057783238395</v>
       </c>
       <c r="AO16" s="31">
         <f>AO102/AG28</f>
-        <v>33.679526818799765</v>
+        <v>32.853304848837965</v>
       </c>
       <c r="AP16" s="33">
         <f>AO102/AG107</f>
-        <v>78.315166456420286</v>
+        <v>76.393948517236183</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -5850,15 +5854,15 @@
       </c>
       <c r="AN19" s="31">
         <f>AO102/AH3</f>
-        <v>8.6076712569490397</v>
+        <v>8.396508934480476</v>
       </c>
       <c r="AO19" s="32">
         <f>AI117/AH31</f>
-        <v>29.818348623853208</v>
+        <v>29.086850152905196</v>
       </c>
       <c r="AP19" s="33">
         <f>AO102/AH107</f>
-        <v>24.3106378864486</v>
+        <v>23.714252336448599</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6248,11 +6252,11 @@
       </c>
       <c r="AO22" s="35">
         <f>(-1*AG98)/AO102</f>
-        <v>5.0418295904225445E-3</v>
+        <v>5.1686256736652317E-3</v>
       </c>
       <c r="AP22" s="36">
         <f>AH107/AO102</f>
-        <v>4.1134255903561741E-2</v>
+        <v>4.2168734051252744E-2</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13978,7 +13982,7 @@
       </c>
       <c r="AO95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14092,7 +14096,7 @@
       </c>
       <c r="AO96" s="48" cm="1">
         <f t="array" ref="AO96">_FV(A1,"Beta")</f>
-        <v>1.0226</v>
+        <v>1.0170999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14319,7 +14323,7 @@
       </c>
       <c r="AO98" s="46">
         <f>(AO95)+((AO96)*(AO97-AO95))</f>
-        <v>8.4790547999999993E-2</v>
+        <v>8.4607905000000011E-2</v>
       </c>
     </row>
     <row r="99" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14658,7 +14662,7 @@
       </c>
       <c r="AO101" s="46">
         <f>AO100/AO104</f>
-        <v>0.1135133968498438</v>
+        <v>0.11603687149670268</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14772,7 +14776,7 @@
       </c>
       <c r="AO102" s="49" cm="1">
         <f t="array" ref="AO102">_FV(A1,"Market cap",TRUE)</f>
-        <v>52024765077</v>
+        <v>50748500000</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14886,7 +14890,7 @@
       </c>
       <c r="AO103" s="46">
         <f>AO102/AO104</f>
-        <v>0.88648660315015615</v>
+        <v>0.88396312850329728</v>
       </c>
     </row>
     <row r="104" spans="1:41" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15002,7 +15006,7 @@
       </c>
       <c r="AO104" s="50">
         <f>AO100+AO102</f>
-        <v>58686465077</v>
+        <v>57410200000</v>
       </c>
     </row>
     <row r="105" spans="1:41" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15171,7 +15175,7 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:AG106" si="11">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AH106" si="11">(C107/B107)-1</f>
         <v>8.5714285714285632E-2</v>
       </c>
       <c r="D106" s="15">
@@ -15323,7 +15327,7 @@
       </c>
       <c r="AO106" s="53">
         <f>(AO101*AO93)+(AO103*AO98)</f>
-        <v>7.7686144741269628E-2</v>
+        <v>7.7366759683256556E-2</v>
       </c>
     </row>
     <row r="107" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -15492,7 +15496,7 @@
       <c r="AK108" s="71"/>
       <c r="AL108" s="56">
         <f>AL107*(1+AO108)/(AO109-AO108)</f>
-        <v>70056843561.544174</v>
+        <v>70484120505.553192</v>
       </c>
       <c r="AM108" s="57" t="s">
         <v>153</v>
@@ -15523,7 +15527,7 @@
       </c>
       <c r="AL109" s="56">
         <f>AL108+AL107</f>
-        <v>73657843561.544174</v>
+        <v>74085120505.553192</v>
       </c>
       <c r="AM109" s="57" t="s">
         <v>151</v>
@@ -15533,7 +15537,7 @@
       </c>
       <c r="AO109" s="24">
         <f>AO106</f>
-        <v>7.7686144741269628E-2</v>
+        <v>7.7366759683256556E-2</v>
       </c>
     </row>
     <row r="110" spans="1:41" ht="19" x14ac:dyDescent="0.2">
@@ -15554,7 +15558,7 @@
       </c>
       <c r="AI111" s="49">
         <f>NPV(AO109,AH109,AI109,AJ109,AK109,AL109)</f>
-        <v>58814193028.298012</v>
+        <v>59189903196.087646</v>
       </c>
       <c r="AJ111" s="44"/>
       <c r="AK111" s="44"/>
@@ -15599,7 +15603,7 @@
       </c>
       <c r="AI114" s="49">
         <f>AI111+AI112-AI113</f>
-        <v>52945293028.298012</v>
+        <v>53321003196.087646</v>
       </c>
       <c r="AJ114" s="44"/>
       <c r="AK114" s="44"/>
@@ -15629,7 +15633,7 @@
       </c>
       <c r="AI116" s="62">
         <f>AI114/AI115</f>
-        <v>480.6957395544224</v>
+        <v>484.10685065861867</v>
       </c>
       <c r="AJ116" s="44"/>
       <c r="AK116" s="44"/>
@@ -15644,7 +15648,7 @@
       </c>
       <c r="AI117" s="63" cm="1">
         <f t="array" ref="AI117">_FV(A1,"Price",TRUE)</f>
-        <v>487.53</v>
+        <v>475.57</v>
       </c>
       <c r="AJ117" s="44"/>
       <c r="AK117" s="44"/>
@@ -15659,7 +15663,7 @@
       </c>
       <c r="AI118" s="64">
         <f>(AI116/AI117)-1</f>
-        <v>-1.4018133131453614E-2</v>
+        <v>1.7950776244545885E-2</v>
       </c>
       <c r="AJ118" s="44"/>
       <c r="AK118" s="44"/>
@@ -15674,7 +15678,7 @@
       </c>
       <c r="AI119" s="65" t="str">
         <f>IF(AI116&gt;AI117,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
       <c r="AJ119" s="44"/>
       <c r="AK119" s="44"/>
@@ -15763,6 +15767,9 @@
     <hyperlink ref="AM107" r:id="rId67" xr:uid="{C3AB093A-BFA2-6D4F-90E0-9F56D07A5165}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AH106" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId68"/>
 </worksheet>
 </file>